--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H2">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>20.1682247394427</v>
+        <v>1.648813041152333</v>
       </c>
       <c r="R2">
-        <v>20.1682247394427</v>
+        <v>14.839317370371</v>
       </c>
       <c r="S2">
-        <v>0.01673831041138071</v>
+        <v>0.001207868193392722</v>
       </c>
       <c r="T2">
-        <v>0.01673831041138071</v>
+        <v>0.001207868193392722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H3">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>231.164323862163</v>
+        <v>17.750950148113</v>
       </c>
       <c r="R3">
-        <v>231.164323862163</v>
+        <v>159.758551333017</v>
       </c>
       <c r="S3">
-        <v>0.191851303663564</v>
+        <v>0.01300378366210691</v>
       </c>
       <c r="T3">
-        <v>0.191851303663564</v>
+        <v>0.01300378366210691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H4">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>340.2898479702086</v>
+        <v>26.208878583524</v>
       </c>
       <c r="R4">
-        <v>340.2898479702086</v>
+        <v>235.879907251716</v>
       </c>
       <c r="S4">
-        <v>0.2824183674444861</v>
+        <v>0.01919979405512572</v>
       </c>
       <c r="T4">
-        <v>0.2824183674444861</v>
+        <v>0.01919979405512573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H5">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>487.1755933532251</v>
+        <v>38.84978020793999</v>
       </c>
       <c r="R5">
-        <v>487.1755933532251</v>
+        <v>349.64802187146</v>
       </c>
       <c r="S5">
-        <v>0.4043239507564211</v>
+        <v>0.02846011807419552</v>
       </c>
       <c r="T5">
-        <v>0.4043239507564211</v>
+        <v>0.02846011807419552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H6">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I6">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J6">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>109.1824059446242</v>
+        <v>9.290384348669667</v>
       </c>
       <c r="R6">
-        <v>109.1824059446242</v>
+        <v>83.61345913802701</v>
       </c>
       <c r="S6">
-        <v>0.09061427199333155</v>
+        <v>0.006805841219759549</v>
       </c>
       <c r="T6">
-        <v>0.09061427199333155</v>
+        <v>0.006805841219759551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H7">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>0.2874803001563586</v>
+        <v>21.87929358592033</v>
       </c>
       <c r="R7">
-        <v>0.2874803001563586</v>
+        <v>196.913642273283</v>
       </c>
       <c r="S7">
-        <v>0.0002385898889634744</v>
+        <v>0.01602807726330504</v>
       </c>
       <c r="T7">
-        <v>0.0002385898889634744</v>
+        <v>0.01602807726330505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H8">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>3.295044064010793</v>
+        <v>235.550204920849</v>
       </c>
       <c r="R8">
-        <v>3.295044064010793</v>
+        <v>2119.951844287641</v>
       </c>
       <c r="S8">
-        <v>0.002734671547700838</v>
+        <v>0.1725566170147396</v>
       </c>
       <c r="T8">
-        <v>0.002734671547700838</v>
+        <v>0.1725566170147396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H9">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I9">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J9">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>4.850532404238789</v>
+        <v>347.7845788300521</v>
       </c>
       <c r="R9">
-        <v>4.850532404238789</v>
+        <v>3130.061209470468</v>
       </c>
       <c r="S9">
-        <v>0.00402562536323924</v>
+        <v>0.2547759633364597</v>
       </c>
       <c r="T9">
-        <v>0.00402562536323924</v>
+        <v>0.2547759633364597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H10">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I10">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J10">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>6.944259478234438</v>
+        <v>515.52585144762</v>
       </c>
       <c r="R10">
-        <v>6.944259478234438</v>
+        <v>4639.732663028579</v>
       </c>
       <c r="S10">
-        <v>0.005763282203839255</v>
+        <v>0.3776579049860581</v>
       </c>
       <c r="T10">
-        <v>0.005763282203839255</v>
+        <v>0.3776579049860581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.322611</v>
+      </c>
+      <c r="H11">
+        <v>30.967833</v>
+      </c>
+      <c r="I11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N11">
+        <v>35.828387</v>
+      </c>
+      <c r="O11">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P11">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q11">
+        <v>123.2808339194857</v>
+      </c>
+      <c r="R11">
+        <v>1109.527505275371</v>
+      </c>
+      <c r="S11">
+        <v>0.09031163293214144</v>
+      </c>
+      <c r="T11">
+        <v>0.09031163293214144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J12">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.119550333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.358651</v>
+      </c>
+      <c r="O12">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="P12">
+        <v>0.01758756303903228</v>
+      </c>
+      <c r="Q12">
+        <v>0.4799792381511112</v>
+      </c>
+      <c r="R12">
+        <v>4.31981314336</v>
+      </c>
+      <c r="S12">
+        <v>0.0003516175823345119</v>
+      </c>
+      <c r="T12">
+        <v>0.000351617582334512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="H11">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="I11">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="J11">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="N11">
-        <v>10.7485319989558</v>
-      </c>
-      <c r="O11">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="P11">
-        <v>0.09190589872040524</v>
-      </c>
-      <c r="Q11">
-        <v>1.556299140765192</v>
-      </c>
-      <c r="R11">
-        <v>1.556299140765192</v>
-      </c>
-      <c r="S11">
-        <v>0.001291626727073684</v>
-      </c>
-      <c r="T11">
-        <v>0.001291626727073684</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J13">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.818859</v>
+      </c>
+      <c r="N13">
+        <v>68.456577</v>
+      </c>
+      <c r="O13">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="P13">
+        <v>0.1893458790903711</v>
+      </c>
+      <c r="Q13">
+        <v>5.167406683413334</v>
+      </c>
+      <c r="R13">
+        <v>46.50666015072</v>
+      </c>
+      <c r="S13">
+        <v>0.00378547841352456</v>
+      </c>
+      <c r="T13">
+        <v>0.003785478413524561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J14">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.691532</v>
+      </c>
+      <c r="N14">
+        <v>101.074596</v>
+      </c>
+      <c r="O14">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="P14">
+        <v>0.2795649311142757</v>
+      </c>
+      <c r="Q14">
+        <v>7.629559726506669</v>
+      </c>
+      <c r="R14">
+        <v>68.66603753856</v>
+      </c>
+      <c r="S14">
+        <v>0.005589173722690164</v>
+      </c>
+      <c r="T14">
+        <v>0.005589173722690165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J15">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>49.94141999999999</v>
+      </c>
+      <c r="N15">
+        <v>149.82426</v>
+      </c>
+      <c r="O15">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="P15">
+        <v>0.4144029319310593</v>
+      </c>
+      <c r="Q15">
+        <v>11.3094010304</v>
+      </c>
+      <c r="R15">
+        <v>101.7846092736</v>
+      </c>
+      <c r="S15">
+        <v>0.008284908870805666</v>
+      </c>
+      <c r="T15">
+        <v>0.008284908870805668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J16">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.94279566666667</v>
+      </c>
+      <c r="N16">
+        <v>35.828387</v>
+      </c>
+      <c r="O16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="P16">
+        <v>0.09909869482526162</v>
+      </c>
+      <c r="Q16">
+        <v>2.704485888035556</v>
+      </c>
+      <c r="R16">
+        <v>24.34037299232</v>
+      </c>
+      <c r="S16">
+        <v>0.001981220673360632</v>
+      </c>
+      <c r="T16">
+        <v>0.001981220673360633</v>
       </c>
     </row>
   </sheetData>
